--- a/tags/movesDB_0.3.0/data/Test3.xlsx
+++ b/tags/movesDB_0.3.0/data/Test3.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16800" tabRatio="500"/>
+    <workbookView xWindow="2900" yWindow="940" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve"> name </t>
   </si>
@@ -31,6 +31,27 @@
   </si>
   <si>
     <t>Bar</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>Two</t>
+  </si>
+  <si>
+    <t>Three</t>
+  </si>
+  <si>
+    <t>Four</t>
+  </si>
+  <si>
+    <t>Five</t>
+  </si>
+  <si>
+    <t>Six</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
 </sst>
 </file>
@@ -399,28 +420,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
